--- a/crack_size_growth_v1.xlsx
+++ b/crack_size_growth_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Research\AM_fatigue\fatigue-crack-tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\_fatigue3D_AM_imagebased_exp\fatigue_crack_tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0446EA3D-F4B7-4983-989F-8B5ED8909D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64439AC7-A823-45E6-8B1C-F93F6472E758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="195" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMS2" sheetId="5" r:id="rId1"/>
@@ -19,18 +19,7 @@
     <sheet name="Green 5" sheetId="3" r:id="rId4"/>
     <sheet name="Green 6a" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -81,9 +70,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -200,9 +189,20 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -219,11 +219,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,14 +239,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -268,6 +273,2882 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 6a'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 6a'!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.544215E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4038035000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8057090000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.111276505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13853283</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.204413135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20826437</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31779200499999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45610157499999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73402306500000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.724292795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC81-4BDC-AFA9-886686DE1B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="270616687"/>
+        <c:axId val="270617935"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="270616687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270617935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="270617935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270616687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 6a'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 6a'!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0437886161329297E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17613483411630401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17086449893405101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21363899774153899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24837166523304999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29084852871531303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29501964567563299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37133530982493501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.479867424218828</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53348784264678994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.688531134735342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CBF-47E1-9673-9C827D9D281C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="361999343"/>
+        <c:axId val="361997263"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="361999343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361997263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="361997263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361999343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 6a'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 6a'!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32737261126886702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38087620029045899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.538358137185728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78349716215379905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88688775258833297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92712200436315095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0912931643039201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.22791836952805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3904708287126399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9770436700256999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4835405999620601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4DF-4253-A56B-80EEB8A7D46A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="364778207"/>
+        <c:axId val="364776127"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="364778207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364776127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="364776127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364778207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6C0E5B-B07F-4235-9238-9B2AF017BFD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>651510</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546D5733-D270-4D10-9A6A-76B20F9AE925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>407670</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39889D79-CDB2-4B0D-A9CF-F2A48A7EBEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -574,15 +3455,15 @@
       <selection pane="topRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="17" max="17" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" customWidth="1"/>
+    <col min="17" max="17" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,333 +3504,333 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="6">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="J3" s="8">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>0</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <v>0</v>
       </c>
       <c r="M3">
         <f>SQRT(J3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="6">
         <v>0</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="6">
         <v>0</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="6">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>20000</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="J4" s="8">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>0</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <v>0</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M12" si="0">SQRT(J4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="6">
         <v>0</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="6">
         <v>0</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="6">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>50000</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="J5" s="8">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="J5" s="6">
         <v>1.1333333333333332E-2</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>0.20299999999999999</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <v>5.4999999999999993E-2</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
         <v>0.1064581294844754</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="6">
         <v>0</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="6">
         <v>0</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>80000</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="J6" s="8">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="J6" s="6">
         <v>0.43733333333333335</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>2.0363333333333333</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>0.35466666666666669</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
         <v>0.66131182760731977</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="6">
         <v>5.1666666666666666E-2</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="6">
         <v>0.3136666666666667</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="6">
         <v>0.16133333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="6">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>90000</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="J7" s="8">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="J7" s="6">
         <v>0.68366666666666676</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>2.1313333333333335</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <v>0.41366666666666668</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
         <v>0.82684137938704227</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="6">
         <v>8.3666666666666667E-2</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="6">
         <v>0.48166666666666663</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="6">
         <v>0.18733333333333335</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="6">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>91000</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="J8" s="8">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="J8" s="6">
         <v>0.72966666666666669</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>2.3119999999999998</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>0.45333333333333337</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
         <v>0.85420528367990478</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="6">
         <v>9.7333333333333341E-2</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="6">
         <v>0.49899999999999994</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="6">
         <v>0.222</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="6">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>92000</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="J9" s="8">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="J9" s="6">
         <v>0.77966666666666662</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>2.4263333333333335</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <v>0.47799999999999998</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
         <v>0.88298735362782321</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="6">
         <v>0.10466666666666667</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="6">
         <v>0.60966666666666658</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="6">
         <v>0.22166666666666668</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="6">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>95000</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="J10" s="8">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="J10" s="6">
         <v>0.94266666666666665</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>2.7869999999999995</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <v>0.5093333333333333</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
         <v>0.97091022585338271</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="6">
         <v>0.13200000000000001</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="6">
         <v>0.625</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="6">
         <v>0.25333333333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="6">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>100000</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="J11" s="8">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="J11" s="6">
         <v>1.3273333333333333</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <v>2.8290000000000002</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="6">
         <v>0.68166666666666664</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
         <v>1.1520995327372254</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="6">
         <v>0.16866666666666666</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="6">
         <v>0.71599999999999986</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="6">
         <v>0.30166666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="6">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>105000</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="J12" s="8">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="J12" s="6">
         <v>2.0340000000000003</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="6">
         <v>3.7226666666666666</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <v>0.81133333333333335</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
         <v>1.4261837188805657</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="6">
         <v>0.17533333333333334</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="6">
         <v>0.71866666666666668</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="6">
         <v>0.34333333333333332</v>
       </c>
     </row>
@@ -968,22 +3849,22 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="1" max="2" width="10.69921875" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="10" width="10.25" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="11.75" customWidth="1"/>
-    <col min="13" max="13" width="10.25" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" customWidth="1"/>
+    <col min="9" max="10" width="10.19921875" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="11.69921875" customWidth="1"/>
+    <col min="13" max="13" width="10.19921875" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" customWidth="1"/>
     <col min="15" max="15" width="9.5" customWidth="1"/>
-    <col min="16" max="1024" width="10.75" customWidth="1"/>
+    <col min="16" max="1024" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1003,11 +3884,11 @@
       <selection sqref="A1:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="10.75" customWidth="1"/>
-    <col min="17" max="17" width="12.25" customWidth="1"/>
-    <col min="18" max="1024" width="10.75" customWidth="1"/>
+    <col min="1" max="16" width="10.69921875" customWidth="1"/>
+    <col min="17" max="17" width="12.19921875" customWidth="1"/>
+    <col min="18" max="1024" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1027,9 +3908,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1024" width="10.75" customWidth="1"/>
+    <col min="1" max="1024" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1046,15 +3927,17 @@
   <dimension ref="A2:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D15" activeCellId="1" sqref="A3:A15 D3:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1024" width="10.75" customWidth="1"/>
+    <col min="1" max="6" width="10.69921875" customWidth="1"/>
+    <col min="7" max="7" width="21.09765625" customWidth="1"/>
+    <col min="8" max="1024" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,8 +3951,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>0</v>
       </c>
       <c r="B3" s="8">
@@ -1082,214 +3965,214 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>50000</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>80000</v>
       </c>
-      <c r="B5" s="8">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.3106666666666667</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.14933333333333332</v>
+      <c r="B5" s="6">
+        <v>1.544215E-2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8.0437886161329297E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.32737261126886702</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>90000</v>
       </c>
-      <c r="B6" s="8">
-        <v>7.5333333333333322E-2</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.39433333333333337</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.21233333333333335</v>
+      <c r="B6" s="6">
+        <v>4.4038035000000003E-2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.17613483411630401</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.38087620029045899</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>100000</v>
       </c>
-      <c r="B7" s="8">
-        <v>0.10933333333333332</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.21133333333333335</v>
+      <c r="B7" s="6">
+        <v>6.8057090000000001E-2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.17086449893405101</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.538358137185728</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>105000</v>
       </c>
-      <c r="B8" s="8">
-        <v>0.11866666666666666</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.621</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.23066666666666666</v>
+      <c r="B8" s="6">
+        <v>0.111276505</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.21363899774153899</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.78349716215379905</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>115000</v>
       </c>
-      <c r="B9" s="8">
-        <v>0.17700000000000002</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.79366666666666674</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.24633333333333332</v>
+      <c r="B9" s="6">
+        <v>0.13853283</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.24837166523304999</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.88688775258833297</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>125000</v>
       </c>
-      <c r="B10" s="8">
-        <v>0.32466666666666666</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.94233333333333336</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.38933333333333336</v>
+      <c r="B10" s="6">
+        <v>0.204413135</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.29084852871531303</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.92712200436315095</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>130000</v>
       </c>
-      <c r="B11" s="8">
-        <v>0.36566666666666664</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1.2596666666666667</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.42733333333333334</v>
+      <c r="B11" s="6">
+        <v>0.20826437</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.29501964567563299</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.0912931643039201</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>135000</v>
       </c>
-      <c r="B12" s="8">
-        <v>0.52366666666666672</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1.4413333333333334</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.50666666666666671</v>
+      <c r="B12" s="6">
+        <v>0.31779200499999999</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.37133530982493501</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.22791836952805</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>140000</v>
       </c>
-      <c r="B13" s="8">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1.4036666666666668</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.56600000000000006</v>
+      <c r="B13" s="6">
+        <v>0.45610157499999998</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.479867424218828</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1.3904708287126399</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>150000</v>
       </c>
-      <c r="B14" s="5">
-        <v>1.0773333333333335</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2.1750000000000003</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.71433333333333326</v>
+      <c r="B14" s="6">
+        <v>0.73402306500000003</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.53348784264678994</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1.9770436700256999</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>160000</v>
       </c>
-      <c r="B15" s="5">
-        <v>2.2730000000000001</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3.7263333333333333</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.95066666666666666</v>
+      <c r="B15" s="6">
+        <v>1.724292795</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.688531134735342</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3.4835405999620601</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
   </sheetData>
@@ -1300,5 +4183,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/crack_size_growth_v1.xlsx
+++ b/crack_size_growth_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\_fatigue3D_AM_imagebased_exp\fatigue_crack_tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64439AC7-A823-45E6-8B1C-F93F6472E758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B742FE-3471-48D0-9520-F2A706CF6D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3168" yWindow="924" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMS2" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t># cycle</t>
   </si>
@@ -62,6 +62,90 @@
   </si>
   <si>
     <t>#11_depth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2_area</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2_side</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2_depth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3_area</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3_side</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3_depth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4_area</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4_side</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4_depth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#6_area</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#6_side</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#6_depth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7_area</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7_side</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7_depth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8_area</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8_side</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8_depth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9_area</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9_side</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9_depth</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -290,6 +374,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Area, mm^2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -323,14 +432,4498 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#1_area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.4931449999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6558825000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7628425000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6930549999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6251654999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2921360000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2549260000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1749245E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5861699999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3367880000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.047499E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.7247960000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6429339999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16828222500000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22087856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07B3-455B-9F4D-24A2FA73830B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#2_area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$A$22:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$B$22:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="9">
+                  <c:v>9.5257599999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9516644999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9648379999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14712834</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38290950499999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63048623999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-07B3-455B-9F4D-24A2FA73830B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#3_area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$G$3:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="9">
+                  <c:v>3.7209999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8977099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6187849999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7089254999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3359515E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2261820000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-07B3-455B-9F4D-24A2FA73830B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#4_area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$F$22:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$G$22:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="6">
+                  <c:v>1.655845E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3257000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8559049999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.652124E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3991709999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25751180499999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42609171000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.58589005500000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2130460000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-07B3-455B-9F4D-24A2FA73830B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#5_area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$K$3:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$L$3:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="11">
+                  <c:v>1.00467E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3451415E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6084584999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.413106E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-07B3-455B-9F4D-24A2FA73830B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$L$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#6_area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$K$22:$K$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$L$22:$L$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="10">
+                  <c:v>3.64658E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0233125E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2587219999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.106550835</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11959293999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-07B3-455B-9F4D-24A2FA73830B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#7_area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$P$3:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$Q$3:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="6">
+                  <c:v>3.6279749999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.82796E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7302649999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3451415E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3302949999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9703445000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5833979999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33366206999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34130872499999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-07B3-455B-9F4D-24A2FA73830B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$Q$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#8_area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$P$22:$P$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$Q$22:$Q$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="6">
+                  <c:v>9.6559950000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1172489999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9042405E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.442E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.111499765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23946495500000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.474855415</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45647367500000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99164649999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-07B3-455B-9F4D-24A2FA73830B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#9_area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$U$3:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$V$3:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="8">
+                  <c:v>1.209325E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.320955E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9163899999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.246535E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.400045E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3349649999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.618635E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-07B3-455B-9F4D-24A2FA73830B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1212506031"/>
+        <c:axId val="1212505199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1212506031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1212505199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1212505199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1212506031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Depth, mm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#1_depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.87949161703381E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.179512509541568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.112824028447178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11025536662226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11292695895240799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.115427606569919</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.110127871161371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.110992775564457</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7382806686205096E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.109035783119197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.164532476746826</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24243716059999701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20500582944134799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.227577120977283</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29032339358050302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CAD-4936-BC28-210AD4AD5598}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#2_depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$A$22:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$C$22:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="9">
+                  <c:v>8.21016649022491E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10598836967272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23192914943465301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.250357242471</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37609894993093801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.439165518157907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4CAD-4936-BC28-210AD4AD5598}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#3_depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$H$3:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="9">
+                  <c:v>2.0520929688968102E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8712008267813599E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6720279157100894E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16525965422146799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18765680877531399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19693066431467399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4CAD-4936-BC28-210AD4AD5598}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#4_depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$F$22:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$H$22:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="6">
+                  <c:v>4.8126224388443099E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0014090221737903E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3075670274497203E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14456461373148299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15067297224245099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31460215216253801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37897724963774798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.404288624508718</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62468765795083603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4CAD-4936-BC28-210AD4AD5598}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#5_depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$K$3:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$M$3:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="11">
+                  <c:v>6.03365250415243E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3773207764026802E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.160050852423616</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.170228036867799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4CAD-4936-BC28-210AD4AD5598}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$M$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#6_depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$K$22:$K$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$M$22:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="10">
+                  <c:v>4.0480150351227998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.125229532323055</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18608144750774799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24476079161370001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25846717692973598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4CAD-4936-BC28-210AD4AD5598}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#7_depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$P$3:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$R$3:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="6">
+                  <c:v>3.3194262247655003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9151163224336606E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6748824414860798E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.113733819968314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13387997881671199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17168523952133699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.217307171309541</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37470694332155102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36989013492398798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4CAD-4936-BC28-210AD4AD5598}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$R$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#8_depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$P$22:$P$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$R$22:$R$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="6">
+                  <c:v>8.19048333785133E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13364142956625899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6500973196350898E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20300408158574801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29040919573006502</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30613804595421301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.504873682529554</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.455288854120657</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66458041578098004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4CAD-4936-BC28-210AD4AD5598}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#9_depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$U$3:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$W$3:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="8">
+                  <c:v>4.5665479435570998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4210162247356603E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9015829058002196E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.05476444340535E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1352688247662701E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13254490159475499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0640182483685698E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4CAD-4936-BC28-210AD4AD5598}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1223295695"/>
+        <c:axId val="1223300687"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1223295695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1223300687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1223300687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1223295695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Side length, mm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#1_side</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$D$3:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.16042405264937001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38839825513531001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31672711784669999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26834005046673998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.288916026848134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26565835308795399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25878776171026802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26634585815289302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17930039099103601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28030165441996302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31853724805283101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43308284718400197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68032875180532604</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99425121161866703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.975171858851133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB5B-4171-9A85-CF6F431913CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#2_side</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$A$22:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$D$22:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="9">
+                  <c:v>0.213160570815352</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24040536997190501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63089430620517595</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0201082218892401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4516921779360199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9951710691233799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CB5B-4171-9A85-CF6F431913CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#3_side</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$I$3:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="9">
+                  <c:v>3.0675613252181301E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4212335244631697E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.183209157214859</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.458626435096809</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.58294843278846198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56151833472469104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CB5B-4171-9A85-CF6F431913CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#4_side</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$F$22:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$I$22:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="6">
+                  <c:v>5.1211448985390699E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17361058365618001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.117857019500073</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.257778583511098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51488912746651505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.19512475394925</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6284324310790701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0693467716674001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9118495996191598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CB5B-4171-9A85-CF6F431913CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#5_side</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$K$3:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$N$3:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="11">
+                  <c:v>4.0027747302443101E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28983622046608398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38061451766478799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38957248563069502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CB5B-4171-9A85-CF6F431913CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$N$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#6_side</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$K$22:$K$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$N$22:$N$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="10">
+                  <c:v>0.117895216400434</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33484160753983599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48982272038924102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55245021979416298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58203660470230101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CB5B-4171-9A85-CF6F431913CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#7_side</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$P$3:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$S$3:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="6">
+                  <c:v>0.151015869682955</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3388576289807699E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5247529686335695E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17836961776847099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38068265291282899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47396110952795301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70506466744104601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1985004392947001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2505064505599099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CB5B-4171-9A85-CF6F431913CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$S$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#8_side</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$P$22:$P$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$S$22:$S$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="6">
+                  <c:v>0.28842538296747899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24612916781514799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41710503614362299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48465204324982197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.550969778547587</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0405666476426001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3650029220936299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5028270584451799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.26590212351651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CB5B-4171-9A85-CF6F431913CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Green 5'!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#9_side</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Green 5'!$U$3:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Green 5'!$X$3:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="8">
+                  <c:v>3.92469713729365E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0838484916259502E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12621611691672899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.14299852570844E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11391790821570499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5728018841552396E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4449969207186694E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-CB5B-4171-9A85-CF6F431913CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1418509839"/>
+        <c:axId val="1418507759"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1418509839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418507759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1418507759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418509839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Area, mm^2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -446,7 +5039,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BC81-4BDC-AFA9-886686DE1B0F}"/>
@@ -640,7 +5233,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -655,6 +5248,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Depth, mm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41504855643044625"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -688,14 +5314,16 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -811,7 +5439,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3CBF-47E1-9673-9C827D9D281C}"/>
@@ -1005,7 +5633,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1020,6 +5648,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Side length, mm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1053,14 +5706,16 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1176,7 +5831,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F4DF-4253-A56B-80EEB8A7D46A}"/>
@@ -1490,6 +6145,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3038,7 +7813,1668 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640F0EAA-AF5F-4D22-8022-961BB348C813}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>803910</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8617D2F-2610-434E-94D3-C512978BB22B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A1A26A-EAF4-450C-BE55-F5750E119D44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3902,23 +10338,1234 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:X36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="K31" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1024" width="10.69921875" customWidth="1"/>
+    <col min="1" max="26" width="10.69921875" customWidth="1"/>
+    <col min="32" max="1024" width="10.69921875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>80000</v>
+      </c>
+      <c r="B3">
+        <v>6.4931449999999996E-3</v>
+      </c>
+      <c r="C3">
+        <v>5.87949161703381E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.16042405264937001</v>
+      </c>
+      <c r="F3">
+        <v>80000</v>
+      </c>
+      <c r="K3">
+        <v>80000</v>
+      </c>
+      <c r="P3">
+        <v>80000</v>
+      </c>
+      <c r="U3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>90000</v>
+      </c>
+      <c r="B4">
+        <v>3.6558825000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.179512509541568</v>
+      </c>
+      <c r="D4">
+        <v>0.38839825513531001</v>
+      </c>
+      <c r="F4">
+        <v>90000</v>
+      </c>
+      <c r="K4">
+        <v>90000</v>
+      </c>
+      <c r="P4">
+        <v>90000</v>
+      </c>
+      <c r="U4">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100000</v>
+      </c>
+      <c r="B5">
+        <v>2.7628425000000002E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.112824028447178</v>
+      </c>
+      <c r="D5">
+        <v>0.31672711784669999</v>
+      </c>
+      <c r="F5">
+        <v>100000</v>
+      </c>
+      <c r="K5">
+        <v>100000</v>
+      </c>
+      <c r="P5">
+        <v>100000</v>
+      </c>
+      <c r="U5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>105000</v>
+      </c>
+      <c r="B6">
+        <v>1.6930549999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.11025536662226</v>
+      </c>
+      <c r="D6">
+        <v>0.26834005046673998</v>
+      </c>
+      <c r="F6">
+        <v>105000</v>
+      </c>
+      <c r="K6">
+        <v>105000</v>
+      </c>
+      <c r="P6">
+        <v>105000</v>
+      </c>
+      <c r="U6">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>115000</v>
+      </c>
+      <c r="B7">
+        <v>2.6251654999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.11292695895240799</v>
+      </c>
+      <c r="D7">
+        <v>0.288916026848134</v>
+      </c>
+      <c r="F7">
+        <v>115000</v>
+      </c>
+      <c r="K7">
+        <v>115000</v>
+      </c>
+      <c r="P7">
+        <v>115000</v>
+      </c>
+      <c r="U7">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>125000</v>
+      </c>
+      <c r="B8">
+        <v>2.2921360000000002E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.115427606569919</v>
+      </c>
+      <c r="D8">
+        <v>0.26565835308795399</v>
+      </c>
+      <c r="F8">
+        <v>125000</v>
+      </c>
+      <c r="K8">
+        <v>125000</v>
+      </c>
+      <c r="P8">
+        <v>125000</v>
+      </c>
+      <c r="U8">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>135000</v>
+      </c>
+      <c r="B9">
+        <v>2.2549260000000002E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.110127871161371</v>
+      </c>
+      <c r="D9">
+        <v>0.25878776171026802</v>
+      </c>
+      <c r="F9">
+        <v>135000</v>
+      </c>
+      <c r="K9">
+        <v>135000</v>
+      </c>
+      <c r="P9">
+        <v>135000</v>
+      </c>
+      <c r="Q9">
+        <v>3.6279749999999999E-3</v>
+      </c>
+      <c r="R9">
+        <v>3.3194262247655003E-2</v>
+      </c>
+      <c r="S9">
+        <v>0.151015869682955</v>
+      </c>
+      <c r="U9">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>145000</v>
+      </c>
+      <c r="B10">
+        <v>2.1749245E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.110992775564457</v>
+      </c>
+      <c r="D10">
+        <v>0.26634585815289302</v>
+      </c>
+      <c r="F10">
+        <v>145000</v>
+      </c>
+      <c r="K10">
+        <v>145000</v>
+      </c>
+      <c r="P10">
+        <v>145000</v>
+      </c>
+      <c r="Q10">
+        <v>2.82796E-3</v>
+      </c>
+      <c r="R10">
+        <v>6.9151163224336606E-2</v>
+      </c>
+      <c r="S10">
+        <v>5.3388576289807699E-2</v>
+      </c>
+      <c r="U10">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>155000</v>
+      </c>
+      <c r="B11">
+        <v>6.5861699999999997E-3</v>
+      </c>
+      <c r="C11">
+        <v>6.7382806686205096E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.17930039099103601</v>
+      </c>
+      <c r="F11">
+        <v>155000</v>
+      </c>
+      <c r="K11">
+        <v>155000</v>
+      </c>
+      <c r="P11">
+        <v>155000</v>
+      </c>
+      <c r="Q11">
+        <v>1.7302649999999999E-3</v>
+      </c>
+      <c r="R11">
+        <v>3.6748824414860798E-2</v>
+      </c>
+      <c r="S11">
+        <v>6.5247529686335695E-2</v>
+      </c>
+      <c r="U11">
+        <v>155000</v>
+      </c>
+      <c r="V11">
+        <v>1.209325E-3</v>
+      </c>
+      <c r="W11">
+        <v>4.5665479435570998E-2</v>
+      </c>
+      <c r="X11">
+        <v>3.92469713729365E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>175000</v>
+      </c>
+      <c r="B12">
+        <v>2.3367880000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.109035783119197</v>
+      </c>
+      <c r="D12">
+        <v>0.28030165441996302</v>
+      </c>
+      <c r="F12">
+        <v>175000</v>
+      </c>
+      <c r="G12">
+        <v>3.7209999999999999E-4</v>
+      </c>
+      <c r="H12">
+        <v>2.0520929688968102E-2</v>
+      </c>
+      <c r="I12">
+        <v>3.0675613252181301E-2</v>
+      </c>
+      <c r="K12">
+        <v>175000</v>
+      </c>
+      <c r="P12">
+        <v>175000</v>
+      </c>
+      <c r="Q12">
+        <v>1.3451415E-2</v>
+      </c>
+      <c r="R12">
+        <v>0.113733819968314</v>
+      </c>
+      <c r="S12">
+        <v>0.17836961776847099</v>
+      </c>
+      <c r="U12">
+        <v>175000</v>
+      </c>
+      <c r="V12">
+        <v>1.320955E-3</v>
+      </c>
+      <c r="W12">
+        <v>3.4210162247356603E-2</v>
+      </c>
+      <c r="X12">
+        <v>5.0838484916259502E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>195000</v>
+      </c>
+      <c r="B13">
+        <v>3.047499E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.164532476746826</v>
+      </c>
+      <c r="D13">
+        <v>0.31853724805283101</v>
+      </c>
+      <c r="F13">
+        <v>195000</v>
+      </c>
+      <c r="G13">
+        <v>1.8977099999999999E-3</v>
+      </c>
+      <c r="H13">
+        <v>4.8712008267813599E-2</v>
+      </c>
+      <c r="I13">
+        <v>5.4212335244631697E-2</v>
+      </c>
+      <c r="K13">
+        <v>195000</v>
+      </c>
+      <c r="P13">
+        <v>195000</v>
+      </c>
+      <c r="Q13">
+        <v>3.3302949999999998E-2</v>
+      </c>
+      <c r="R13">
+        <v>0.13387997881671199</v>
+      </c>
+      <c r="S13">
+        <v>0.38068265291282899</v>
+      </c>
+      <c r="U13">
+        <v>195000</v>
+      </c>
+      <c r="V13">
+        <v>5.9163899999999997E-3</v>
+      </c>
+      <c r="W13">
+        <v>7.9015829058002196E-2</v>
+      </c>
+      <c r="X13">
+        <v>0.12621611691672899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>215000</v>
+      </c>
+      <c r="B14">
+        <v>7.7247960000000004E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.24243716059999701</v>
+      </c>
+      <c r="D14">
+        <v>0.43308284718400197</v>
+      </c>
+      <c r="F14">
+        <v>215000</v>
+      </c>
+      <c r="G14">
+        <v>9.6187849999999995E-3</v>
+      </c>
+      <c r="H14">
+        <v>9.6720279157100894E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.183209157214859</v>
+      </c>
+      <c r="K14">
+        <v>215000</v>
+      </c>
+      <c r="L14">
+        <v>1.00467E-3</v>
+      </c>
+      <c r="M14">
+        <v>6.03365250415243E-2</v>
+      </c>
+      <c r="N14">
+        <v>4.0027747302443101E-2</v>
+      </c>
+      <c r="P14">
+        <v>215000</v>
+      </c>
+      <c r="Q14">
+        <v>5.9703445000000001E-2</v>
+      </c>
+      <c r="R14">
+        <v>0.17168523952133699</v>
+      </c>
+      <c r="S14">
+        <v>0.47396110952795301</v>
+      </c>
+      <c r="U14">
+        <v>215000</v>
+      </c>
+      <c r="V14">
+        <v>1.246535E-3</v>
+      </c>
+      <c r="W14">
+        <v>3.05476444340535E-2</v>
+      </c>
+      <c r="X14">
+        <v>5.14299852570844E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>225000</v>
+      </c>
+      <c r="B15">
+        <v>7.6429339999999998E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.20500582944134799</v>
+      </c>
+      <c r="D15">
+        <v>0.68032875180532604</v>
+      </c>
+      <c r="F15">
+        <v>225000</v>
+      </c>
+      <c r="G15">
+        <v>4.7089254999999997E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.16525965422146799</v>
+      </c>
+      <c r="I15">
+        <v>0.458626435096809</v>
+      </c>
+      <c r="K15">
+        <v>225000</v>
+      </c>
+      <c r="L15">
+        <v>1.3451415E-2</v>
+      </c>
+      <c r="M15">
+        <v>8.3773207764026802E-2</v>
+      </c>
+      <c r="N15">
+        <v>0.28983622046608398</v>
+      </c>
+      <c r="P15">
+        <v>225000</v>
+      </c>
+      <c r="Q15">
+        <v>7.5833979999999995E-2</v>
+      </c>
+      <c r="R15">
+        <v>0.217307171309541</v>
+      </c>
+      <c r="S15">
+        <v>0.70506466744104601</v>
+      </c>
+      <c r="U15">
+        <v>225000</v>
+      </c>
+      <c r="V15">
+        <v>2.400045E-3</v>
+      </c>
+      <c r="W15">
+        <v>4.1352688247662701E-2</v>
+      </c>
+      <c r="X15">
+        <v>0.11391790821570499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>235000</v>
+      </c>
+      <c r="B16">
+        <v>0.16828222500000001</v>
+      </c>
+      <c r="C16">
+        <v>0.227577120977283</v>
+      </c>
+      <c r="D16">
+        <v>0.99425121161866703</v>
+      </c>
+      <c r="F16">
+        <v>235000</v>
+      </c>
+      <c r="G16">
+        <v>7.3359515E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.18765680877531399</v>
+      </c>
+      <c r="I16">
+        <v>0.58294843278846198</v>
+      </c>
+      <c r="K16">
+        <v>235000</v>
+      </c>
+      <c r="L16">
+        <v>4.6084584999999997E-2</v>
+      </c>
+      <c r="M16">
+        <v>0.160050852423616</v>
+      </c>
+      <c r="N16">
+        <v>0.38061451766478799</v>
+      </c>
+      <c r="P16">
+        <v>235000</v>
+      </c>
+      <c r="Q16">
+        <v>0.33366206999999998</v>
+      </c>
+      <c r="R16">
+        <v>0.37470694332155102</v>
+      </c>
+      <c r="S16">
+        <v>1.1985004392947001</v>
+      </c>
+      <c r="U16">
+        <v>235000</v>
+      </c>
+      <c r="V16">
+        <v>4.3349649999999997E-3</v>
+      </c>
+      <c r="W16">
+        <v>0.13254490159475499</v>
+      </c>
+      <c r="X16">
+        <v>6.5728018841552396E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>245000</v>
+      </c>
+      <c r="B17">
+        <v>0.22087856</v>
+      </c>
+      <c r="C17">
+        <v>0.29032339358050302</v>
+      </c>
+      <c r="D17">
+        <v>0.975171858851133</v>
+      </c>
+      <c r="F17">
+        <v>245000</v>
+      </c>
+      <c r="G17">
+        <v>7.2261820000000004E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.19693066431467399</v>
+      </c>
+      <c r="I17">
+        <v>0.56151833472469104</v>
+      </c>
+      <c r="K17">
+        <v>245000</v>
+      </c>
+      <c r="L17">
+        <v>4.413106E-2</v>
+      </c>
+      <c r="M17">
+        <v>0.170228036867799</v>
+      </c>
+      <c r="N17">
+        <v>0.38957248563069502</v>
+      </c>
+      <c r="P17">
+        <v>245000</v>
+      </c>
+      <c r="Q17">
+        <v>0.34130872499999998</v>
+      </c>
+      <c r="R17">
+        <v>0.36989013492398798</v>
+      </c>
+      <c r="S17">
+        <v>1.2505064505599099</v>
+      </c>
+      <c r="U17">
+        <v>245000</v>
+      </c>
+      <c r="V17">
+        <v>1.618635E-3</v>
+      </c>
+      <c r="W17">
+        <v>7.0640182483685698E-2</v>
+      </c>
+      <c r="X17">
+        <v>6.4449969207186694E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>80000</v>
+      </c>
+      <c r="F22">
+        <v>80000</v>
+      </c>
+      <c r="K22">
+        <v>80000</v>
+      </c>
+      <c r="P22">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>90000</v>
+      </c>
+      <c r="F23">
+        <v>90000</v>
+      </c>
+      <c r="K23">
+        <v>90000</v>
+      </c>
+      <c r="P23">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>100000</v>
+      </c>
+      <c r="F24">
+        <v>100000</v>
+      </c>
+      <c r="K24">
+        <v>100000</v>
+      </c>
+      <c r="P24">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>105000</v>
+      </c>
+      <c r="F25">
+        <v>105000</v>
+      </c>
+      <c r="K25">
+        <v>105000</v>
+      </c>
+      <c r="P25">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>115000</v>
+      </c>
+      <c r="F26">
+        <v>115000</v>
+      </c>
+      <c r="K26">
+        <v>115000</v>
+      </c>
+      <c r="P26">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>125000</v>
+      </c>
+      <c r="F27">
+        <v>125000</v>
+      </c>
+      <c r="K27">
+        <v>125000</v>
+      </c>
+      <c r="P27">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>135000</v>
+      </c>
+      <c r="F28">
+        <v>135000</v>
+      </c>
+      <c r="G28">
+        <v>1.655845E-3</v>
+      </c>
+      <c r="H28">
+        <v>4.8126224388443099E-2</v>
+      </c>
+      <c r="I28">
+        <v>5.1211448985390699E-2</v>
+      </c>
+      <c r="K28">
+        <v>135000</v>
+      </c>
+      <c r="P28">
+        <v>135000</v>
+      </c>
+      <c r="Q28">
+        <v>9.6559950000000005E-3</v>
+      </c>
+      <c r="R28">
+        <v>8.19048333785133E-2</v>
+      </c>
+      <c r="S28">
+        <v>0.28842538296747899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>145000</v>
+      </c>
+      <c r="F29">
+        <v>145000</v>
+      </c>
+      <c r="G29">
+        <v>6.3257000000000001E-3</v>
+      </c>
+      <c r="H29">
+        <v>5.0014090221737903E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.17361058365618001</v>
+      </c>
+      <c r="K29">
+        <v>145000</v>
+      </c>
+      <c r="P29">
+        <v>145000</v>
+      </c>
+      <c r="Q29">
+        <v>2.1172489999999999E-2</v>
+      </c>
+      <c r="R29">
+        <v>0.13364142956625899</v>
+      </c>
+      <c r="S29">
+        <v>0.24612916781514799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>155000</v>
+      </c>
+      <c r="F30">
+        <v>155000</v>
+      </c>
+      <c r="G30">
+        <v>4.8559049999999998E-3</v>
+      </c>
+      <c r="H30">
+        <v>6.3075670274497203E-2</v>
+      </c>
+      <c r="I30">
+        <v>0.117857019500073</v>
+      </c>
+      <c r="K30">
+        <v>155000</v>
+      </c>
+      <c r="P30">
+        <v>155000</v>
+      </c>
+      <c r="Q30">
+        <v>2.9042405E-2</v>
+      </c>
+      <c r="R30">
+        <v>9.6500973196350898E-2</v>
+      </c>
+      <c r="S30">
+        <v>0.41710503614362299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>175000</v>
+      </c>
+      <c r="B31">
+        <v>9.5257599999999994E-3</v>
+      </c>
+      <c r="C31">
+        <v>8.21016649022491E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.213160570815352</v>
+      </c>
+      <c r="F31">
+        <v>175000</v>
+      </c>
+      <c r="G31">
+        <v>1.652124E-2</v>
+      </c>
+      <c r="H31">
+        <v>0.14456461373148299</v>
+      </c>
+      <c r="I31">
+        <v>0.257778583511098</v>
+      </c>
+      <c r="K31">
+        <v>175000</v>
+      </c>
+      <c r="P31">
+        <v>175000</v>
+      </c>
+      <c r="Q31">
+        <v>7.442E-2</v>
+      </c>
+      <c r="R31">
+        <v>0.20300408158574801</v>
+      </c>
+      <c r="S31">
+        <v>0.48465204324982197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>195000</v>
+      </c>
+      <c r="B32">
+        <v>1.9516644999999999E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.10598836967272</v>
+      </c>
+      <c r="D32">
+        <v>0.24040536997190501</v>
+      </c>
+      <c r="F32">
+        <v>195000</v>
+      </c>
+      <c r="G32">
+        <v>5.3991709999999998E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.15067297224245099</v>
+      </c>
+      <c r="I32">
+        <v>0.51488912746651505</v>
+      </c>
+      <c r="K32">
+        <v>195000</v>
+      </c>
+      <c r="L32">
+        <v>3.64658E-3</v>
+      </c>
+      <c r="M32">
+        <v>4.0480150351227998E-2</v>
+      </c>
+      <c r="N32">
+        <v>0.117895216400434</v>
+      </c>
+      <c r="P32">
+        <v>195000</v>
+      </c>
+      <c r="Q32">
+        <v>0.111499765</v>
+      </c>
+      <c r="R32">
+        <v>0.29040919573006502</v>
+      </c>
+      <c r="S32">
+        <v>0.550969778547587</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>215000</v>
+      </c>
+      <c r="B33">
+        <v>9.9648379999999995E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.23192914943465301</v>
+      </c>
+      <c r="D33">
+        <v>0.63089430620517595</v>
+      </c>
+      <c r="F33">
+        <v>215000</v>
+      </c>
+      <c r="G33">
+        <v>0.25751180499999998</v>
+      </c>
+      <c r="H33">
+        <v>0.31460215216253801</v>
+      </c>
+      <c r="I33">
+        <v>1.19512475394925</v>
+      </c>
+      <c r="K33">
+        <v>215000</v>
+      </c>
+      <c r="L33">
+        <v>3.0233125E-2</v>
+      </c>
+      <c r="M33">
+        <v>0.125229532323055</v>
+      </c>
+      <c r="N33">
+        <v>0.33484160753983599</v>
+      </c>
+      <c r="P33">
+        <v>215000</v>
+      </c>
+      <c r="Q33">
+        <v>0.23946495500000001</v>
+      </c>
+      <c r="R33">
+        <v>0.30613804595421301</v>
+      </c>
+      <c r="S33">
+        <v>1.0405666476426001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>225000</v>
+      </c>
+      <c r="B34">
+        <v>0.14712834</v>
+      </c>
+      <c r="C34">
+        <v>0.250357242471</v>
+      </c>
+      <c r="D34">
+        <v>1.0201082218892401</v>
+      </c>
+      <c r="F34">
+        <v>225000</v>
+      </c>
+      <c r="G34">
+        <v>0.42609171000000001</v>
+      </c>
+      <c r="H34">
+        <v>0.37897724963774798</v>
+      </c>
+      <c r="I34">
+        <v>1.6284324310790701</v>
+      </c>
+      <c r="K34">
+        <v>225000</v>
+      </c>
+      <c r="L34">
+        <v>6.2587219999999999E-2</v>
+      </c>
+      <c r="M34">
+        <v>0.18608144750774799</v>
+      </c>
+      <c r="N34">
+        <v>0.48982272038924102</v>
+      </c>
+      <c r="P34">
+        <v>225000</v>
+      </c>
+      <c r="Q34">
+        <v>0.474855415</v>
+      </c>
+      <c r="R34">
+        <v>0.504873682529554</v>
+      </c>
+      <c r="S34">
+        <v>1.3650029220936299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>235000</v>
+      </c>
+      <c r="B35">
+        <v>0.38290950499999998</v>
+      </c>
+      <c r="C35">
+        <v>0.37609894993093801</v>
+      </c>
+      <c r="D35">
+        <v>1.4516921779360199</v>
+      </c>
+      <c r="F35">
+        <v>235000</v>
+      </c>
+      <c r="G35">
+        <v>0.58589005500000002</v>
+      </c>
+      <c r="H35">
+        <v>0.404288624508718</v>
+      </c>
+      <c r="I35">
+        <v>2.0693467716674001</v>
+      </c>
+      <c r="K35">
+        <v>235000</v>
+      </c>
+      <c r="L35">
+        <v>0.106550835</v>
+      </c>
+      <c r="M35">
+        <v>0.24476079161370001</v>
+      </c>
+      <c r="N35">
+        <v>0.55245021979416298</v>
+      </c>
+      <c r="P35">
+        <v>235000</v>
+      </c>
+      <c r="Q35">
+        <v>0.45647367500000002</v>
+      </c>
+      <c r="R35">
+        <v>0.455288854120657</v>
+      </c>
+      <c r="S35">
+        <v>1.5028270584451799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>245000</v>
+      </c>
+      <c r="B36">
+        <v>0.63048623999999998</v>
+      </c>
+      <c r="C36">
+        <v>0.439165518157907</v>
+      </c>
+      <c r="D36">
+        <v>1.9951710691233799</v>
+      </c>
+      <c r="F36">
+        <v>245000</v>
+      </c>
+      <c r="G36">
+        <v>1.2130460000000001</v>
+      </c>
+      <c r="H36">
+        <v>0.62468765795083603</v>
+      </c>
+      <c r="I36">
+        <v>2.9118495996191598</v>
+      </c>
+      <c r="K36">
+        <v>245000</v>
+      </c>
+      <c r="L36">
+        <v>0.11959293999999999</v>
+      </c>
+      <c r="M36">
+        <v>0.25846717692973598</v>
+      </c>
+      <c r="N36">
+        <v>0.58203660470230101</v>
+      </c>
+      <c r="P36">
+        <v>245000</v>
+      </c>
+      <c r="Q36">
+        <v>0.99164649999999999</v>
+      </c>
+      <c r="R36">
+        <v>0.66458041578098004</v>
+      </c>
+      <c r="S36">
+        <v>2.26590212351651</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39416666666666667" bottom="0.39416666666666667" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3926,8 +11573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" activeCellId="1" sqref="A3:A15 D3:D15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3945,10 +11592,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
